--- a/doc/ue_pak.xlsx
+++ b/doc/ue_pak.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298F525D-0850-40CD-8D7E-81922CBA31B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="源码" sheetId="1" r:id="rId1"/>
+    <sheet name="内存占用研究" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>FPakPlatformFile</t>
   </si>
@@ -296,13 +296,29 @@
   </si>
   <si>
     <t>？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当更新众多的pak之后，每一个都是增量的话，就会有很多个，那么内存的占用会多大么？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是不是每一个PAK仅仅读取了文件列表？？？找到了，在继续读取内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动的时候全部fopen打开了，还是后续一直open????!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不读取的时候占用内存吗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -645,10 +661,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1006,4 +1022,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_pak.xlsx
+++ b/doc/ue_pak.xlsx
@@ -9,11 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="源码" sheetId="1" r:id="rId1"/>
     <sheet name="内存占用研究" sheetId="2" r:id="rId2"/>
+    <sheet name="压缩与解压" sheetId="3" r:id="rId3"/>
+    <sheet name="加密与解密" sheetId="4" r:id="rId4"/>
+    <sheet name="重组" sheetId="6" r:id="rId5"/>
+    <sheet name="UnrealPak" sheetId="7" r:id="rId6"/>
+    <sheet name="OpenAsyncRead" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>FPakPlatformFile</t>
   </si>
@@ -312,6 +317,18 @@
   </si>
   <si>
     <t>不读取的时候占用内存吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包的原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Engine\Source\Programs\UnrealPak\Private\UnrealPak.cpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -382,6 +399,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -664,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -1028,7 +1046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -1068,4 +1086,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_pak.xlsx
+++ b/doc/ue_pak.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77F17E3-2594-43DA-981E-9DDBCFC85698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="源码" sheetId="1" r:id="rId1"/>
@@ -19,6 +20,7 @@
     <sheet name="重组" sheetId="6" r:id="rId5"/>
     <sheet name="UnrealPak" sheetId="7" r:id="rId6"/>
     <sheet name="OpenAsyncRead" sheetId="8" r:id="rId7"/>
+    <sheet name="异步读取Pak " sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
   <si>
     <t>FPakPlatformFile</t>
   </si>
@@ -329,14 +331,226 @@
   </si>
   <si>
     <t>PAK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFileHandle</t>
+  </si>
+  <si>
+    <t>virtual bool Read(uint8* Destination, int64 BytesToRead) override</t>
+  </si>
+  <si>
+    <t>实际读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual bool Write(const uint8* Source, int64 BytesToWrite) override</t>
+  </si>
+  <si>
+    <t>写文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual IFileHandle* OpenReadNoBuffering(const TCHAR* Filename, bool bAllowWrite = false)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>return OpenRead(Filename, bAllowWrite);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>默认情况下，还是会调用自己的OpenRead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWindowsPlatformFile</t>
+  </si>
+  <si>
+    <t>FConcertSandboxPlatformFile</t>
+  </si>
+  <si>
+    <t>但是在Windows和sandbox下调用的是OpenReadNoBuffering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual IFileHandle* OpenReadNoBuffering(const TCHAR* Filename, bool bAllowWrite = false) override</t>
+  </si>
+  <si>
+    <t>uint32  Access = GENERIC_READ;</t>
+  </si>
+  <si>
+    <t>uint32  WinFlags = FILE_SHARE_READ | (bAllowWrite ? FILE_SHARE_WRITE : 0);</t>
+  </si>
+  <si>
+    <t>uint32  Create = OPEN_EXISTING;</t>
+  </si>
+  <si>
+    <t>TRACE_PLATFORMFILE_BEGIN_OPEN(Filename);</t>
+  </si>
+  <si>
+    <t>HANDLE Handle = CreateFileW(*WindowsNormalizedFilename(Filename), Access, WinFlags, NULL, Create, FILE_ATTRIBUTE_NORMAL | FILE_FLAG_OVERLAPPED, NULL);</t>
+  </si>
+  <si>
+    <t>if (Handle != INVALID_HANDLE_VALUE)</t>
+  </si>
+  <si>
+    <t>TRACE_PLATFORMFILE_END_OPEN(Handle);</t>
+  </si>
+  <si>
+    <t>return new FFileHandleWindows(Handle, Access, WinFlags, FILE_FLAG_OVERLAPPED);</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>TRACE_PLATFORMFILE_FAIL_OPEN(Filename);</t>
+  </si>
+  <si>
+    <t>return nullptr;</t>
+  </si>
+  <si>
+    <t>单独的实现，而不是OpenRead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各个平台下不一样的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAsyncReadFileHandle</t>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncPackage::ProcessImportsAndExports_Event()</t>
+  </si>
+  <si>
+    <t>void FAsyncPackage::Event_ProcessImportsAndExports()</t>
+  </si>
+  <si>
+    <t>void FAsyncLoadingThread::QueueEvent_ProcessImportsAndExports(FAsyncPackage* Package, int32 EventSystemPriority)</t>
+  </si>
+  <si>
+    <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessAsyncLoading(int32&amp; OutPackagesProcessed, bool bUseTimeLimit /*= false*/, bool bUseFullTimeLimit /*= false*/, float TimeLi</t>
+  </si>
+  <si>
+    <t>void FAsyncPackage::StartPrecacheRequest()</t>
+  </si>
+  <si>
+    <t>IAsyncReadRequest* FAsyncArchive::MakeEventDrivenPrecacheRequest(int64 Offset, int64 BytesToRead, FAsyncFileCallBack* CompleteCallback)</t>
+  </si>
+  <si>
+    <t>注意：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先OpenAsyncRead，返回句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAsyncReadFileHandle* NewHandle = FPlatformFileManager::Get().GetPlatformFile().OpenAsyncRead(*NewFileName);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在发起读请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAsyncReadRequest* Precache = NewHandle-&gt;ReadRequest(Offset - HeaderSizeWhenReadingExportsFromSplitFile, BytesToRead, Prio, CompleteCallback);</t>
+  </si>
+  <si>
+    <t>class FPakAsyncReadFileHandle final : public IAsyncReadFileHandle</t>
+  </si>
+  <si>
+    <t>派生类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual IAsyncReadRequest* FPakAsyncReadFileHandle::ReadRequest(int64 Offset, int64 BytesToRead, EAsyncIOPriorityAndFlags PriorityAndFlags = AIOP_Normal, FAsyncFileCallBack* CompleteCallback = nullptr, uint8* UserSuppliedMemory = nullptr) override</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (FileEntry.IsEncrypted())</t>
+  </si>
+  <si>
+    <t>// Note that the lifetime of FPakEncryptedReadRequest is within our lifetime, so we can send the raw pointer in</t>
+  </si>
+  <si>
+    <t>return new FPakEncryptedReadRequest(ActualPakFile, PakFile, PakFileSize, CompleteCallback, OffsetInPak, Offset, BytesToRead, PriorityAndFlags, UserSuppliedMemory, EncryptionKeyGuid);</t>
+  </si>
+  <si>
+    <t>// Note that the lifetime of FPakReadRequest is within our lifetime, so we can send the raw pointer in</t>
+  </si>
+  <si>
+    <t>return new FPakReadRequest(ActualPakFile, PakFile, PakFileSize, CompleteCallback, OffsetInPak + Offset, BytesToRead, PriorityAndFlags, UserSuppliedMemory);</t>
+  </si>
+  <si>
+    <t>是否加密了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则就是压缩了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result = new FPakProcessedReadRequest(this, CompleteCallback, Offset, BytesToRead, PriorityAndFlags, UserSuppliedMemory);</t>
+  </si>
+  <si>
+    <t>解压的方式读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPakPrecacher::Get().QueueRequest(this, InActualPakFile, InPakFile, PakFileSize, Offset, BytesToRead, InPriorityAndFlags)</t>
+  </si>
+  <si>
+    <t>内部实现很神奇？？用这个读取？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个确没用到FPakPrecacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAsyncReadFileHandle* FPakPlatformFile::OpenAsyncRead(const TCHAR* Filename)</t>
+  </si>
+  <si>
+    <t>return new FPakAsyncReadFileHandle(&amp;FileEntry, PakFile, Filename);</t>
+  </si>
+  <si>
+    <t>返回句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return new FBypassPakAsyncReadFileHandle(&amp;FileEntry, PakFile, Filename);</t>
+  </si>
+  <si>
+    <t>（也有可能返回下面的，具体不同的宏不一样的处理）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +581,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -388,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -400,6 +623,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -415,6 +640,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>62128</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>32298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC776AD-3F20-4201-36FF-1DB91FCB162D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8291728" y="4772025"/>
+          <a:ext cx="6281522" cy="3585123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>17632</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6C8172-0142-DB02-4640-BDE539AE011C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8247232" y="57149"/>
+          <a:ext cx="6211718" cy="4369433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -679,7 +997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:E85"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -1043,7 +1361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B5:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1089,7 +1407,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1105,7 +1423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1126,7 +1444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1141,7 +1459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1168,17 +1486,455 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="D34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="E35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+      <c r="D36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D43" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACA9CF9-640D-4585-BDF1-542C8F908C98}">
+  <dimension ref="C3:R42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D10" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>121</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="R13" s="5"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="G14" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="R14" s="5"/>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>141</v>
+      </c>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="G16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>143</v>
+      </c>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F25" s="6"/>
+      <c r="G25" s="4"/>
+      <c r="I25" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F26" s="6"/>
+      <c r="G26" s="4"/>
+      <c r="I26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="F27" s="6"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="H28" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H40" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H41" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/ue_pak.xlsx
+++ b/doc/ue_pak.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77F17E3-2594-43DA-981E-9DDBCFC85698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="源码" sheetId="1" r:id="rId1"/>
@@ -21,6 +20,7 @@
     <sheet name="UnrealPak" sheetId="7" r:id="rId6"/>
     <sheet name="OpenAsyncRead" sheetId="8" r:id="rId7"/>
     <sheet name="异步读取Pak " sheetId="9" r:id="rId8"/>
+    <sheet name="打包过程" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="173">
   <si>
     <t>FPakPlatformFile</t>
   </si>
@@ -445,111 +445,212 @@
     <t>void FAsyncLoadingThread::QueueEvent_ProcessImportsAndExports(FAsyncPackage* Package, int32 EventSystemPriority)</t>
   </si>
   <si>
+    <t>void FAsyncPackage::StartPrecacheRequest()</t>
+  </si>
+  <si>
+    <t>IAsyncReadRequest* FAsyncArchive::MakeEventDrivenPrecacheRequest(int64 Offset, int64 BytesToRead, FAsyncFileCallBack* CompleteCallback)</t>
+  </si>
+  <si>
+    <t>注意：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先OpenAsyncRead，返回句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAsyncReadFileHandle* NewHandle = FPlatformFileManager::Get().GetPlatformFile().OpenAsyncRead(*NewFileName);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在发起读请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAsyncReadRequest* Precache = NewHandle-&gt;ReadRequest(Offset - HeaderSizeWhenReadingExportsFromSplitFile, BytesToRead, Prio, CompleteCallback);</t>
+  </si>
+  <si>
+    <t>class FPakAsyncReadFileHandle final : public IAsyncReadFileHandle</t>
+  </si>
+  <si>
+    <t>派生类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual IAsyncReadRequest* FPakAsyncReadFileHandle::ReadRequest(int64 Offset, int64 BytesToRead, EAsyncIOPriorityAndFlags PriorityAndFlags = AIOP_Normal, FAsyncFileCallBack* CompleteCallback = nullptr, uint8* UserSuppliedMemory = nullptr) override</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (FileEntry.IsEncrypted())</t>
+  </si>
+  <si>
+    <t>// Note that the lifetime of FPakEncryptedReadRequest is within our lifetime, so we can send the raw pointer in</t>
+  </si>
+  <si>
+    <t>return new FPakEncryptedReadRequest(ActualPakFile, PakFile, PakFileSize, CompleteCallback, OffsetInPak, Offset, BytesToRead, PriorityAndFlags, UserSuppliedMemory, EncryptionKeyGuid);</t>
+  </si>
+  <si>
+    <t>// Note that the lifetime of FPakReadRequest is within our lifetime, so we can send the raw pointer in</t>
+  </si>
+  <si>
+    <t>return new FPakReadRequest(ActualPakFile, PakFile, PakFileSize, CompleteCallback, OffsetInPak + Offset, BytesToRead, PriorityAndFlags, UserSuppliedMemory);</t>
+  </si>
+  <si>
+    <t>是否加密了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则就是压缩了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result = new FPakProcessedReadRequest(this, CompleteCallback, Offset, BytesToRead, PriorityAndFlags, UserSuppliedMemory);</t>
+  </si>
+  <si>
+    <t>解压的方式读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPakPrecacher::Get().QueueRequest(this, InActualPakFile, InPakFile, PakFileSize, Offset, BytesToRead, InPriorityAndFlags)</t>
+  </si>
+  <si>
+    <t>内部实现很神奇？？用这个读取？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个确没用到FPakPrecacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAsyncReadFileHandle* FPakPlatformFile::OpenAsyncRead(const TCHAR* Filename)</t>
+  </si>
+  <si>
+    <t>return new FPakAsyncReadFileHandle(&amp;FileEntry, PakFile, Filename);</t>
+  </si>
+  <si>
+    <t>返回句柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return new FBypassPakAsyncReadFileHandle(&amp;FileEntry, PakFile, Filename);</t>
+  </si>
+  <si>
+    <t>（也有可能返回下面的，具体不同的宏不一样的处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解压与压缩原理，怎么实现的？最终的目的要是能单独提出来就算的是彻底搞明白了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EAsyncPackageState::Type FAsyncLoadingThread::ProcessAsyncLoading(int32&amp; OutPackagesProcessed, bool bUseTimeLimit /*= false*/, bool bUseFullTimeLimit /*= false*/, float TimeLi</t>
-  </si>
-  <si>
-    <t>void FAsyncPackage::StartPrecacheRequest()</t>
-  </si>
-  <si>
-    <t>IAsyncReadRequest* FAsyncArchive::MakeEventDrivenPrecacheRequest(int64 Offset, int64 BytesToRead, FAsyncFileCallBack* CompleteCallback)</t>
-  </si>
-  <si>
-    <t>注意：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先OpenAsyncRead，返回句柄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAsyncReadFileHandle* NewHandle = FPlatformFileManager::Get().GetPlatformFile().OpenAsyncRead(*NewFileName);</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在发起读请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAsyncReadRequest* Precache = NewHandle-&gt;ReadRequest(Offset - HeaderSizeWhenReadingExportsFromSplitFile, BytesToRead, Prio, CompleteCallback);</t>
-  </si>
-  <si>
-    <t>class FPakAsyncReadFileHandle final : public IAsyncReadFileHandle</t>
-  </si>
-  <si>
-    <t>派生类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>virtual IAsyncReadRequest* FPakAsyncReadFileHandle::ReadRequest(int64 Offset, int64 BytesToRead, EAsyncIOPriorityAndFlags PriorityAndFlags = AIOP_Normal, FAsyncFileCallBack* CompleteCallback = nullptr, uint8* UserSuppliedMemory = nullptr) override</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果没压缩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (FileEntry.IsEncrypted())</t>
-  </si>
-  <si>
-    <t>// Note that the lifetime of FPakEncryptedReadRequest is within our lifetime, so we can send the raw pointer in</t>
-  </si>
-  <si>
-    <t>return new FPakEncryptedReadRequest(ActualPakFile, PakFile, PakFileSize, CompleteCallback, OffsetInPak, Offset, BytesToRead, PriorityAndFlags, UserSuppliedMemory, EncryptionKeyGuid);</t>
-  </si>
-  <si>
-    <t>// Note that the lifetime of FPakReadRequest is within our lifetime, so we can send the raw pointer in</t>
-  </si>
-  <si>
-    <t>return new FPakReadRequest(ActualPakFile, PakFile, PakFileSize, CompleteCallback, OffsetInPak + Offset, BytesToRead, PriorityAndFlags, UserSuppliedMemory);</t>
-  </si>
-  <si>
-    <t>是否加密了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否则就是压缩了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result = new FPakProcessedReadRequest(this, CompleteCallback, Offset, BytesToRead, PriorityAndFlags, UserSuppliedMemory);</t>
-  </si>
-  <si>
-    <t>解压的方式读</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FPakPrecacher::Get().QueueRequest(this, InActualPakFile, InPakFile, PakFileSize, Offset, BytesToRead, InPriorityAndFlags)</t>
-  </si>
-  <si>
-    <t>内部实现很神奇？？用这个读取？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个确没用到FPakPrecacher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAsyncReadFileHandle* FPakPlatformFile::OpenAsyncRead(const TCHAR* Filename)</t>
-  </si>
-  <si>
-    <t>return new FPakAsyncReadFileHandle(&amp;FileEntry, PakFile, Filename);</t>
-  </si>
-  <si>
-    <t>返回句柄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return new FBypassPakAsyncReadFileHandle(&amp;FileEntry, PakFile, Filename);</t>
-  </si>
-  <si>
-    <t>（也有可能返回下面的，具体不同的宏不一样的处理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历文件夹，收集需要打包的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool ExecuteUnrealPak(const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>打包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool CreatePakFile(const TCHAR* Filename, TArray&lt;FPakInputPair&gt;&amp; FilesToAdd, const FPakCommandLineParameters&amp; CmdLineParameters, const FKeyChain&amp; InKeyChain)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilesToAdd需要打包的文件列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历目录下面的所有文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FString&gt; ExtensionsToNotUsePluginCompression;</t>
+  </si>
+  <si>
+    <t>GConfig-&gt;GetArray(TEXT("Pak"), TEXT("ExtensionsToNotUsePluginCompression"), ExtensionsToNotUsePluginCompression, GEngineIni);</t>
+  </si>
+  <si>
+    <t>TSet&lt;FString&gt; NoPluginCompressionExtensions;</t>
+  </si>
+  <si>
+    <t>for (const FString&amp; Ext : ExtensionsToNotUsePluginCompression)</t>
+  </si>
+  <si>
+    <t>NoPluginCompressionExtensions.Add(Ext);</t>
+  </si>
+  <si>
+    <t>uplugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uproject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ini</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据后缀过滤不需要压缩的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据名字过滤不需要压缩的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TArray&lt;FString&gt; FileNamesToNotUsePluginCompression;</t>
+  </si>
+  <si>
+    <t>GConfig-&gt;GetArray(TEXT("Pak"), TEXT("FileNamesToNotUsePluginCompression"), FileNamesToNotUsePluginCompression, GEngineIni);</t>
+  </si>
+  <si>
+    <t>TSet&lt;FString&gt; NoPluginCompressionFileNames;</t>
+  </si>
+  <si>
+    <t>for (const FString&amp; FileName : FileNamesToNotUsePluginCompression)</t>
+  </si>
+  <si>
+    <t>NoPluginCompressionFileNames.Add(FileName);</t>
+  </si>
+  <si>
+    <t>AssetRegistry.bin</t>
+  </si>
+  <si>
+    <t>挨个文件压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个文件分成不同的块压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入PAK前进行加密</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -997,7 +1098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E85"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -1361,7 +1462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1407,15 +1508,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1423,11 +1530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1444,7 +1551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1459,7 +1566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1486,10 +1593,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1715,18 +1822,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACA9CF9-640D-4585-BDF1-542C8F908C98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="3:18" x14ac:dyDescent="0.2">
@@ -1746,17 +1853,17 @@
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.2">
       <c r="D10" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.2">
@@ -1764,47 +1871,47 @@
         <v>1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R13" s="5"/>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.2">
       <c r="G14" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R14" s="5"/>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.2">
       <c r="G15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.2">
       <c r="G16" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R17" s="5"/>
     </row>
@@ -1816,17 +1923,17 @@
         <v>2</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="4:18" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="4:18" x14ac:dyDescent="0.2">
@@ -1834,21 +1941,21 @@
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="4:18" x14ac:dyDescent="0.2">
       <c r="F25" s="6"/>
       <c r="G25" s="4"/>
       <c r="I25" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="4:18" x14ac:dyDescent="0.2">
       <c r="F26" s="6"/>
       <c r="G26" s="4"/>
       <c r="I26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="4:18" x14ac:dyDescent="0.2">
@@ -1857,12 +1964,12 @@
     </row>
     <row r="28" spans="4:18" x14ac:dyDescent="0.2">
       <c r="H28" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="4:18" x14ac:dyDescent="0.2">
       <c r="H29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="4:18" x14ac:dyDescent="0.2">
@@ -1872,12 +1979,12 @@
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.2">
       <c r="I31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.2">
+      <c r="I32" s="5" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.2">
-      <c r="I32" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="33" spans="6:9" x14ac:dyDescent="0.2">
@@ -1897,12 +2004,12 @@
     </row>
     <row r="36" spans="6:9" x14ac:dyDescent="0.2">
       <c r="I36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="5" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="I37" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="38" spans="6:9" x14ac:dyDescent="0.2">
@@ -1915,26 +2022,195 @@
         <v>2</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="6:9" x14ac:dyDescent="0.2">
       <c r="H40" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="6:9" x14ac:dyDescent="0.2">
       <c r="H41" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H42" t="s">
-        <v>135</v>
+      <c r="H42" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:T36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D10" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="E13" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+      <c r="T15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>154</v>
+      </c>
+      <c r="T16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>155</v>
+      </c>
+      <c r="T17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="T18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>156</v>
+      </c>
+      <c r="T19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E22" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>165</v>
+      </c>
+      <c r="T24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E31" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_pak.xlsx
+++ b/doc/ue_pak.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D090C95F-838A-4193-BE3B-72F069C021CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="源码" sheetId="1" r:id="rId1"/>
@@ -21,6 +22,8 @@
     <sheet name="OpenAsyncRead" sheetId="8" r:id="rId7"/>
     <sheet name="异步读取Pak " sheetId="9" r:id="rId8"/>
     <sheet name="打包过程" sheetId="10" r:id="rId9"/>
+    <sheet name="文件加载解析流程" sheetId="12" r:id="rId10"/>
+    <sheet name="文件保存格式解析" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="206">
   <si>
     <t>FPakPlatformFile</t>
   </si>
@@ -644,13 +647,131 @@
   </si>
   <si>
     <t>写入PAK前进行加密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool FPakPlatformFile::Mount(const TCHAR* InPakFilename, uint32 PakOrder, const TCHAR* InPath /*= NULL*/, bool bLoadIndex /*= true*/)</t>
+  </si>
+  <si>
+    <t>挂在PAK文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool FPakPlatformFile::Initialize(IPlatformFile* Inner, const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以启动时为例：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和自己手动Mount挂在原理一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Find and mount pak files from the specified directories.</t>
+  </si>
+  <si>
+    <t>TArray&lt;FString&gt; PakFolders;</t>
+  </si>
+  <si>
+    <t>MountAllPakFiles(PakFolders, *StartupPaksWildcard);</t>
+  </si>
+  <si>
+    <t>挂载所有PAK文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找到对应目录下面的所有PAK文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意这个目录的规则顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 FPakPlatformFile::MountAllPakFiles(const TArray&lt;FString&gt;&amp; PakFolders, const FString&amp; WildCard)</t>
+  </si>
+  <si>
+    <t>TRefCountPtr&lt;FPakFile&gt; Pak = new FPakFile(LowerLevel, InPakFilename, bSigned, bLoadIndex);</t>
+  </si>
+  <si>
+    <t>创建，在其构造函数里面会进行数据的读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPakFile::FPakFile(IPlatformFile* LowerLevel, const TCHAR* Filename, bool bIsSigned, bool bLoadIndex)</t>
+  </si>
+  <si>
+    <t>FArchive* Reader = GetSharedReader(LowerLevel);</t>
+  </si>
+  <si>
+    <t>if (Reader)</t>
+  </si>
+  <si>
+    <t>Timestamp = LowerLevel-&gt;GetTimeStamp(Filename);</t>
+  </si>
+  <si>
+    <t>Initialize(Reader, bLoadIndex);</t>
+  </si>
+  <si>
+    <t>构造函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FPakFile::Initialize(FArchive* Reader, bool bLoadIndex)</t>
+  </si>
+  <si>
+    <t>读取整个文件大小，从最后开始读取PakInfo信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPakInfo Info</t>
+  </si>
+  <si>
+    <t>就是先计算FPakInfo站多大空间，然后从文件最后读取这么大之后序列化出来FPakInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从上面的FPakInfo里面，得到Index相关的信息：偏移，大小等数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取出来index整块内存后，序列化mountpoint,NumEntries,PathHashSeed等数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列化DirectoryIndex：PAK里面包含那些目录，每个目录里面文件信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列化EncodedPakEntries，里面包含所有文件的信息，查找文件就从这个里面查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，这个里面仅仅是文件目录和内部文件到其索引位置的对应关系，找到索引位置后需要在EncodedPakEntries里面查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 根据4的Index，从3中取出数据后，就是类FPakEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面包含了文件的信息，偏移等数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPakFolders(FCommandLine::Get(), PakFolders);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -825,6 +946,55 @@
         <a:xfrm>
           <a:off x="8247232" y="57149"/>
           <a:ext cx="6211718" cy="4369433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>189301</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>161543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDEC8310-DBCB-479A-029C-D62DF2B714DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="8143875"/>
+          <a:ext cx="9590476" cy="3057143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1098,7 +1268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:E85"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -1461,8 +1631,266 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE0CA7B-1161-46F1-A61B-144AA83C521C}">
+  <dimension ref="B3:N50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C4" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D20" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D23" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" s="4">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C36" s="5">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>195</v>
+      </c>
+      <c r="I36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C37" s="5"/>
+      <c r="D37" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C39" s="5">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C40" s="5"/>
+      <c r="D40" t="s">
+        <v>199</v>
+      </c>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C42" s="5">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C44" s="5">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>200</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="5">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C48" s="5"/>
+      <c r="D48" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10DF845-EC50-4980-AECB-ED4F65850B1E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B5:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1508,7 +1936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1530,7 +1958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1551,7 +1979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1566,7 +1994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1593,7 +2021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -1822,7 +2250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="C3:R42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -2047,10 +2475,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B5:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_pak.xlsx
+++ b/doc/ue_pak.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D090C95F-838A-4193-BE3B-72F069C021CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="源码" sheetId="1" r:id="rId1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="208">
   <si>
     <t>FPakPlatformFile</t>
   </si>
@@ -766,13 +765,19 @@
   <si>
     <t>GetPakFolders(FCommandLine::Get(), PakFolders);</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测要加载的文件是否存在于当前 Pak 中！因为 Pak 的 Mount Point 的默认含义是当前 Pak 中所有文件的公共路径，所以只需要检测要读取的文件是否以这个路径开头，就可以首先排除掉基础路径不对的文件（基础路径都不对，意味着这个文件在 Pak 中也不存在）</t>
+  </si>
+  <si>
+    <t>如果 Mount 时不传递 Mount Point 就会从 Pak 文件中读取，如果有传入就设置为传入的值（Pak 文件中的 MountPoint 是 Pak 中所有文件的公共路径）。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -812,6 +817,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF565A5F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -833,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -847,6 +858,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1268,11 +1280,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1359,10 +1371,16 @@
       <c r="B23" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="D23" s="7" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>74</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1632,10 +1650,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE0CA7B-1161-46F1-A61B-144AA83C521C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
@@ -1877,7 +1895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D10DF845-EC50-4980-AECB-ED4F65850B1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1890,7 +1908,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1936,7 +1954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1958,7 +1976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1979,7 +1997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1994,7 +2012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2021,7 +2039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -2250,7 +2268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:R42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -2475,7 +2493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:T36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">

--- a/doc/ue_pak.xlsx
+++ b/doc/ue_pak.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FBF4C9-B8E9-42F6-A960-E5414A3E67BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="源码" sheetId="1" r:id="rId1"/>
@@ -24,17 +25,26 @@
     <sheet name="文件加载解析流程" sheetId="12" r:id="rId10"/>
     <sheet name="文件保存格式解析" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="229">
   <si>
     <t>FPakPlatformFile</t>
   </si>
@@ -771,12 +781,84 @@
   </si>
   <si>
     <t>如果 Mount 时不传递 Mount Point 就会从 Pak 文件中读取，如果有传入就设置为传入的值（Pak 文件中的 MountPoint 是 Pak 中所有文件的公共路径）。</t>
+  </si>
+  <si>
+    <t>压缩的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool CreatePakFile(const TCHAR* Filename, TArray&lt;FPakInputPair&gt;&amp; FilesToAdd, const FPakCommandLineParameters&amp; CmdLineParameters, const FKeyChain&amp; InKeyChain)</t>
+  </si>
+  <si>
+    <t>CmdLineParameters就是命令参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if ( CompressionMethod == NAME_Zlib )</t>
+  </si>
+  <si>
+    <t>// for forced-Zlib files still use the old heuristic :</t>
+  </si>
+  <si>
+    <t>// TODO : move this inside the zlib compressor</t>
+  </si>
+  <si>
+    <t>// Zlib must save at least 1K regardless of percentage (for small files)</t>
+  </si>
+  <si>
+    <t>bNotEnoughCompression = (OriginalFileSize - CompressedFileBuffer.TotalCompressedSize) &lt; 1024;</t>
+  </si>
+  <si>
+    <t>if ( ! bNotEnoughCompression )</t>
+  </si>
+  <si>
+    <t>// Check the compression ratio, if it's too low just store uncompressed. Also take into account read size</t>
+  </si>
+  <si>
+    <t>// if we still save 64KB it's probably worthwhile compressing, as that saves a file read operation in the runtime.</t>
+  </si>
+  <si>
+    <t>// TODO: drive this threshold from the command line</t>
+  </si>
+  <si>
+    <t>float PercentLess = ((float)CompressedFileBuffer.TotalCompressedSize / (OriginalFileSize / 100.f));</t>
+  </si>
+  <si>
+    <t>bNotEnoughCompression = (PercentLess &gt; 90.f) &amp;&amp; ((OriginalFileSize - CompressedFileBuffer.TotalCompressedSize) &lt; 65536);</t>
+  </si>
+  <si>
+    <t>如果时ZLIB压缩的话，需要满足压缩率大于10%才算有效，否则就不压缩了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForceCompress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动压缩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制压缩，不管压缩率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！压缩率大于10%才行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1280,10 +1362,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -1650,7 +1732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B3:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1895,7 +1977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1908,7 +1990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B5:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1954,18 +2036,185 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="D14" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="D16" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="D17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="E19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="E20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="E22" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="E23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>221</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +2225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1997,7 +2246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2012,7 +2261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2039,7 +2288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -2268,7 +2517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="C3:R42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -2493,7 +2742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B5:T36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
